--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W9.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9A7EFB-C763-4F62-B328-AB8571DBFAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F1626-ACE1-4519-AB86-74C77DA97348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -47,9 +47,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -796,7 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2763,29 +2761,29 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="D7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2814,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24">
+    <row r="5" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A13" si="0">ROW()-3</f>
         <v>2</v>
@@ -2829,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24">
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2844,7 +2842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="58">
         <v>44716</v>
@@ -2856,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="58">
         <v>44718</v>
@@ -2868,7 +2866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="24">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2883,7 +2881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="58">
         <v>44732</v>
@@ -2895,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2910,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2925,7 +2923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2949,38 +2947,38 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -2988,7 +2986,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
@@ -2996,13 +2994,13 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
@@ -3029,7 +3027,7 @@
       </c>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>1</v>
       </c>
@@ -3056,7 +3054,7 @@
       </c>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="47">
         <v>2</v>
       </c>
@@ -3083,7 +3081,7 @@
       </c>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>3</v>
       </c>
@@ -3110,7 +3108,7 @@
       </c>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>4</v>
       </c>
@@ -3137,7 +3135,7 @@
       </c>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>5</v>
       </c>
@@ -3164,7 +3162,7 @@
       </c>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="47">
         <v>6</v>
       </c>
@@ -3191,7 +3189,7 @@
       </c>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>7</v>
       </c>
@@ -3218,7 +3216,7 @@
       </c>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>8</v>
       </c>
@@ -3245,7 +3243,7 @@
       </c>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:9" ht="24">
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>9</v>
       </c>
@@ -3272,7 +3270,7 @@
       </c>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -3297,38 +3295,38 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -3336,7 +3334,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
@@ -3344,13 +3342,13 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3375,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -3403,7 +3401,7 @@
       <c r="H9" s="22"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -3429,7 +3427,7 @@
       <c r="H10" s="22"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -3455,7 +3453,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3479,7 @@
       <c r="H12" s="22"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -3506,7 +3504,7 @@
       <c r="H13" s="22"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -3532,7 +3530,7 @@
       <c r="H14" s="22"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -3557,7 +3555,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3582,7 +3580,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -3608,7 +3606,7 @@
       <c r="H17" s="22"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>66</v>
       </c>
@@ -3652,38 +3650,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -3691,7 +3689,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
@@ -3699,13 +3697,13 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -3732,7 +3730,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -3758,7 +3756,7 @@
       <c r="H9" s="22"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +3782,7 @@
       <c r="H10" s="22"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -3810,7 +3808,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -3836,7 +3834,7 @@
       <c r="H12" s="22"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -3862,7 +3860,7 @@
       <c r="H13" s="22"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="24">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -3888,7 +3886,7 @@
       <c r="H14" s="22"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -3913,7 +3911,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="24">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -3938,7 +3936,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -3986,48 +3984,48 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -4078,7 +4076,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -4103,7 +4101,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -4128,7 +4126,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -4153,7 +4151,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4178,7 +4176,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -4203,7 +4201,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -4228,7 +4226,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" ht="25.5">
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -4253,7 +4251,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -4278,7 +4276,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4288,10 +4286,10 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -4316,41 +4314,41 @@
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -4401,7 +4399,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -4426,7 +4424,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -4451,7 +4449,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -4476,7 +4474,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4501,7 +4499,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -4526,7 +4524,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -4551,7 +4549,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -4576,7 +4574,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -4601,7 +4599,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -4626,7 +4624,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -4651,7 +4649,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -4676,7 +4674,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -4701,7 +4699,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -4726,7 +4724,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -4751,10 +4749,10 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -4779,41 +4777,41 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -4839,7 +4837,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -4864,7 +4862,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -4889,7 +4887,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -4914,7 +4912,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -4939,7 +4937,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -4964,7 +4962,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -4989,7 +4987,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -5014,7 +5012,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -5039,7 +5037,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -5064,7 +5062,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -5089,7 +5087,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -5114,7 +5112,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -5139,7 +5137,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5164,7 +5162,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -5189,7 +5187,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -5214,10 +5212,10 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -5242,41 +5240,41 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -5327,7 +5325,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -5352,7 +5350,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -5377,7 +5375,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -5402,7 +5400,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5427,7 +5425,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -5452,7 +5450,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -5477,7 +5475,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -5502,7 +5500,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -5527,7 +5525,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -5552,7 +5550,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -5577,7 +5575,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -5602,7 +5600,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5627,7 +5625,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -5652,7 +5650,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -5677,10 +5675,10 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -5705,41 +5703,41 @@
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -5765,7 +5763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -5790,7 +5788,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5813,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -5840,7 +5838,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -5865,7 +5863,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -5890,7 +5888,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -5915,7 +5913,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -5940,7 +5938,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -5965,7 +5963,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -5990,7 +5988,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -6015,7 +6013,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -6040,7 +6038,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -6065,7 +6063,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -6090,7 +6088,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -6115,7 +6113,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -6140,10 +6138,10 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -6172,47 +6170,47 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>1</v>
       </c>
@@ -6235,7 +6233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>30</v>
       </c>
@@ -6259,7 +6257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>36</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>40</v>
       </c>
@@ -6307,7 +6305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>44</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>48</v>
       </c>
@@ -6355,7 +6353,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>52</v>
       </c>
@@ -6379,7 +6377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>55</v>
       </c>
@@ -6403,7 +6401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>58</v>
       </c>
@@ -6427,7 +6425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>63</v>
       </c>
@@ -6451,7 +6449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>70</v>
       </c>
@@ -6499,7 +6497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>73</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.75">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>82</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>85</v>
       </c>
@@ -6619,7 +6617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>88</v>
       </c>
@@ -6643,7 +6641,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>91</v>
       </c>
@@ -6667,7 +6665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>95</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>99</v>
       </c>
@@ -6715,7 +6713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>102</v>
       </c>
@@ -6739,7 +6737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>105</v>
       </c>
@@ -6763,7 +6761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>108</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="107.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>111</v>
       </c>
@@ -6811,7 +6809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="122.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>115</v>
       </c>
@@ -6835,7 +6833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>118</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="91.5">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>121</v>
       </c>
@@ -6883,7 +6881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>124</v>
       </c>
@@ -6907,7 +6905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>127</v>
       </c>
@@ -6931,7 +6929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>130</v>
       </c>
@@ -6955,7 +6953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>133</v>
       </c>
@@ -6979,7 +6977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>135</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>137</v>
       </c>
@@ -7027,7 +7025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>140</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>143</v>
       </c>
@@ -7075,7 +7073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>146</v>
       </c>
@@ -7099,7 +7097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>149</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>152</v>
       </c>
@@ -7147,7 +7145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>155</v>
       </c>
@@ -7171,7 +7169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>158</v>
       </c>
@@ -7195,7 +7193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>161</v>
       </c>
@@ -7219,7 +7217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>164</v>
       </c>
@@ -7243,7 +7241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>167</v>
       </c>
@@ -7267,7 +7265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30.75">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>170</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45.75">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>173</v>
       </c>
@@ -7341,25 +7339,25 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="B9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="C1" s="1"/>
@@ -7369,7 +7367,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2"/>
       <c r="C2" s="1"/>
@@ -7379,7 +7377,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3"/>
       <c r="C3" s="1"/>
@@ -7389,7 +7387,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4"/>
       <c r="C4" s="1"/>
@@ -7399,7 +7397,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -7411,7 +7409,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -7423,7 +7421,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="C7" s="1"/>
@@ -7433,7 +7431,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -7459,7 +7457,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -7486,7 +7484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -7511,7 +7509,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7534,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -7561,7 +7559,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -7586,7 +7584,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="24">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -7611,7 +7609,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -7667,46 +7665,46 @@
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -7732,7 +7730,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7755,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -7782,7 +7780,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -7807,7 +7805,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -7832,7 +7830,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -7857,7 +7855,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -7882,7 +7880,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -7907,7 +7905,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -7961,46 +7959,46 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -8026,7 +8024,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -8051,7 +8049,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -8076,7 +8074,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -8101,7 +8099,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -8126,7 +8124,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8151,7 +8149,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -8176,7 +8174,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -8201,7 +8199,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -8226,7 +8224,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -8251,7 +8249,7 @@
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -8276,7 +8274,7 @@
       </c>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -8301,7 +8299,7 @@
       </c>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -8326,7 +8324,7 @@
       </c>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -8351,7 +8349,7 @@
       </c>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -8375,7 +8373,7 @@
       </c>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -8400,7 +8398,7 @@
       </c>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -8439,46 +8437,46 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -8529,7 +8527,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -8554,7 +8552,7 @@
       </c>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -8579,7 +8577,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -8604,7 +8602,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -8629,7 +8627,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -8654,7 +8652,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -8679,7 +8677,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -8704,7 +8702,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -8729,7 +8727,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -8754,7 +8752,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>70</v>
       </c>
@@ -8779,7 +8777,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
@@ -8804,7 +8802,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="24">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>76</v>
       </c>
@@ -8829,7 +8827,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="24">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
@@ -8854,7 +8852,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>82</v>
       </c>
@@ -8900,42 +8898,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FC0D86-1BC3-450E-90F1-3FA475955827}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -8943,7 +8941,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
@@ -8951,13 +8949,13 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="24">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -8984,7 +8982,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="24">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -9010,7 +9008,7 @@
       <c r="H9" s="22"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="24">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -9036,7 +9034,7 @@
       <c r="H10" s="22"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="36">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -9062,7 +9060,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -9088,7 +9086,7 @@
       <c r="H12" s="22"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -9114,7 +9112,7 @@
       <c r="H13" s="22"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="24">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -9140,7 +9138,7 @@
       <c r="H14" s="22"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -9165,7 +9163,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:10" ht="24">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -9190,7 +9188,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -9238,38 +9236,38 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5">
+    <row r="5" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -9277,7 +9275,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>203</v>
@@ -9285,13 +9283,13 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -9318,7 +9316,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -9343,7 +9341,7 @@
       <c r="H9" s="22"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
@@ -9368,7 +9366,7 @@
       <c r="H10" s="22"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -9393,7 +9391,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
@@ -9407,7 +9405,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="23">
-        <f t="shared" ref="E10:E17" si="0">IF(D12="Complex", 240, IF(D12="Medium",120,60))</f>
+        <f t="shared" ref="E12:E17" si="0">IF(D12="Complex", 240, IF(D12="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -9419,7 +9417,7 @@
       <c r="H12" s="22"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
@@ -9445,7 +9443,7 @@
       <c r="H13" s="22"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -9470,7 +9468,7 @@
       <c r="H14" s="22"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
@@ -9495,7 +9493,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -9520,7 +9518,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>63</v>
       </c>
@@ -9546,7 +9544,7 @@
       <c r="H17" s="22"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
         <v>66</v>
       </c>
@@ -9571,7 +9569,7 @@
       </c>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
         <v>70</v>
       </c>
@@ -9614,20 +9612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D853D-4C58-4E7F-A2CE-B4F48D108780}">
   <dimension ref="A6:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="24">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -9653,7 +9651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -9678,7 +9676,7 @@
       </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
@@ -9703,7 +9701,7 @@
       </c>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -9728,7 +9726,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
@@ -9753,7 +9751,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
@@ -9764,11 +9762,11 @@
         <v>97</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E11" s="55">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>210</v>
@@ -9778,7 +9776,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>52</v>
       </c>
@@ -9803,7 +9801,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>55</v>
       </c>
@@ -9828,7 +9826,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>58</v>
       </c>
@@ -9853,7 +9851,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -9874,7 +9872,7 @@
         <v>214</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H15" s="22"/>
     </row>
